--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dijsktra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以与毕业设计相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,22 @@
   </si>
   <si>
     <t>1.在CatSu工程下完成代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dijsktra+Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五子棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dijsktra+Heap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,9 +242,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +281,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -610,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -625,418 +637,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="71" customHeight="1">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="33">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="33">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="79" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82" customHeight="1">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="55" customHeight="1">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="82" customHeight="1">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="55" customHeight="1">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1057,36 +1075,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="68" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="43" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>41976</v>
       </c>
     </row>

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5520" yWindow="860" windowWidth="20480" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>Dijsktra+Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +254,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,6 +298,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -622,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,8 +741,12 @@
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -1075,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1109,7 +1132,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43" customHeight="1">
-      <c r="C3"/>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19">
+        <v>41982</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="43" customHeight="1">
       <c r="C4"/>

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="860" windowWidth="20480" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成代码编写（在catsu 工程下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~2 days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,15 @@
   </si>
   <si>
     <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costed Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成代码编写（在catsu 工程下）
+2.完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,13 +301,13 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -641,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,20 +655,20 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="71" customHeight="1">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="33">
       <c r="A2" s="3" t="s">
@@ -678,7 +683,9 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,9 +706,7 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
@@ -720,32 +725,30 @@
         <v>10</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="55" customHeight="1">
+    <row r="5" spans="1:7" ht="70" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>24</v>
+      <c r="F5" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -754,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1098,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1111,32 +1114,33 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="68" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="16">
         <v>41976</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43" customHeight="1">
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="19">
-        <v>41982</v>
+      <c r="B3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="18">
+        <f ca="1">NOW()</f>
+        <v>41982.458658796299</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43" customHeight="1">

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Dijsktra" sheetId="2" r:id="rId2"/>
+    <sheet name="粒子群" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以与毕业设计相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +81,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,6 +118,41 @@
   <si>
     <t>1.完成代码编写（在catsu 工程下）
 2.完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子群算法处理最短路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress And Questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress And Questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提出问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系数与序列的长度做乘法这样可以参与到计算中去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A-B运算如何编码，如果A与B的长度不一致应该怎么处理
+2.a,b系数怎么参与计算
+3.如何初始化一个交换序列
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与TSP的区别是TSP是要求遍历每一个city，而我们要做的没要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,14 +280,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,15 +338,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,28 +686,29 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="71" customHeight="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="33">
       <c r="A2" s="3" t="s">
@@ -681,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -711,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82" customHeight="1">
@@ -724,7 +764,9 @@
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
@@ -736,19 +778,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -757,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1101,6 +1143,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16">
+        <v>41976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18">
+        <f ca="1">NOW()</f>
+        <v>41983.691577199075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43" customHeight="1">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" ht="43" customHeight="1">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" ht="43" customHeight="1">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" ht="43" customHeight="1">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" ht="43" customHeight="1">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" ht="43" customHeight="1">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" ht="43" customHeight="1">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" ht="43" customHeight="1">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" ht="43" customHeight="1">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" ht="43" customHeight="1">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" ht="43" customHeight="1">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" ht="43" customHeight="1">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" ht="43" customHeight="1">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3" ht="43" customHeight="1">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3" ht="43" customHeight="1">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3" ht="43" customHeight="1">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="3:3" ht="43" customHeight="1">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="3:3" ht="43" customHeight="1">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="3:3" ht="43" customHeight="1">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3" ht="43" customHeight="1">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3" ht="43" customHeight="1">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:3" ht="43" customHeight="1">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="3:3" ht="43" customHeight="1">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="3:3" ht="43" customHeight="1">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="3:3" ht="43" customHeight="1">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="3:3" ht="43" customHeight="1">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="3:3" ht="43" customHeight="1">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="3:3" ht="43" customHeight="1">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" ht="43" customHeight="1">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" ht="43" customHeight="1">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" ht="43" customHeight="1">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" ht="43" customHeight="1">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" ht="43" customHeight="1">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" ht="43" customHeight="1">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" ht="43" customHeight="1">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" ht="43" customHeight="1">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" ht="43" customHeight="1">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" ht="43" customHeight="1">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" ht="43" customHeight="1">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" ht="43" customHeight="1">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" ht="43" customHeight="1">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" ht="43" customHeight="1">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" ht="43" customHeight="1">
+      <c r="C47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -1108,78 +1340,86 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="68" customHeight="1">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="68" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="148" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16">
-        <v>41976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43" customHeight="1">
-      <c r="B3" s="17" t="s">
-        <v>22</v>
+        <f ca="1">NOW()</f>
+        <v>41983.691577199075</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="107" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41982.458658796299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43" customHeight="1">
+        <v>41983.691577199075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" ht="43" customHeight="1">
+    <row r="5" spans="1:4" ht="43" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" ht="43" customHeight="1">
+    <row r="6" spans="1:4" ht="43" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" ht="43" customHeight="1">
+    <row r="7" spans="1:4" ht="43" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="43" customHeight="1">
+    <row r="8" spans="1:4" ht="43" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1">
+    <row r="9" spans="1:4" ht="43" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="43" customHeight="1">
+    <row r="10" spans="1:4" ht="43" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="43" customHeight="1">
+    <row r="11" spans="1:4" ht="43" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" ht="43" customHeight="1">
+    <row r="12" spans="1:4" ht="43" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="43" customHeight="1">
+    <row r="13" spans="1:4" ht="43" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" ht="43" customHeight="1">
+    <row r="14" spans="1:4" ht="43" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" ht="43" customHeight="1">
+    <row r="15" spans="1:4" ht="43" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" ht="43" customHeight="1">
+    <row r="16" spans="1:4" ht="43" customHeight="1">
       <c r="C16"/>
     </row>
     <row r="17" spans="3:3" ht="43" customHeight="1">
@@ -1278,6 +1518,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>与TSP的区别是TSP是要求遍历每一个city，而我们要做的没要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,8 +292,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -345,15 +361,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,25 +814,37 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
+    <row r="6" spans="1:7" ht="65" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1182,7 +1214,7 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41983.691577199075</v>
+        <v>41986.924009374998</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43" customHeight="1">
@@ -1333,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1368,7 +1400,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">NOW()</f>
-        <v>41983.691577199075</v>
+        <v>41986.924009374998</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>29</v>
@@ -1380,7 +1412,7 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41983.691577199075</v>
+        <v>41986.924009374998</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43" customHeight="1">

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Dijsktra" sheetId="2" r:id="rId2"/>
     <sheet name="粒子群" sheetId="3" r:id="rId3"/>
+    <sheet name="粒子群BP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,12 +168,21 @@
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>粒子群算法（BP网络优化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.研究BP源代码                       
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,22 +372,90 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,7 +467,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -702,25 +780,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="71" customHeight="1">
+    <row r="1" spans="1:7" ht="71.099999999999994" customHeight="1">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -730,7 +808,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="33">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="35.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -753,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79" customHeight="1">
+    <row r="3" spans="1:7" ht="78.95" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -774,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82" customHeight="1">
+    <row r="4" spans="1:7" ht="81.95" customHeight="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -793,7 +871,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="70" customHeight="1">
+    <row r="5" spans="1:7" ht="69.95" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -814,7 +892,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="65" customHeight="1">
+    <row r="6" spans="1:7" ht="65.099999999999994" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1172,21 +1250,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="68" customHeight="1">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -1208,145 +1286,145 @@
         <v>41976</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43" customHeight="1">
+    <row r="3" spans="1:3" ht="42.95" customHeight="1">
       <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41986.924009374998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43" customHeight="1">
+        <v>41988.847022337963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.95" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" ht="43" customHeight="1">
+    <row r="5" spans="1:3" ht="42.95" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" ht="43" customHeight="1">
+    <row r="6" spans="1:3" ht="42.95" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" ht="43" customHeight="1">
+    <row r="7" spans="1:3" ht="42.95" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="43" customHeight="1">
+    <row r="8" spans="1:3" ht="42.95" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1">
+    <row r="9" spans="1:3" ht="42.95" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="43" customHeight="1">
+    <row r="10" spans="1:3" ht="42.95" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="43" customHeight="1">
+    <row r="11" spans="1:3" ht="42.95" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" ht="43" customHeight="1">
+    <row r="12" spans="1:3" ht="42.95" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="43" customHeight="1">
+    <row r="13" spans="1:3" ht="42.95" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" ht="43" customHeight="1">
+    <row r="14" spans="1:3" ht="42.95" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" ht="43" customHeight="1">
+    <row r="15" spans="1:3" ht="42.95" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" ht="43" customHeight="1">
+    <row r="16" spans="1:3" ht="42.95" customHeight="1">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" ht="43" customHeight="1">
+    <row r="17" spans="3:3" ht="42.95" customHeight="1">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" ht="43" customHeight="1">
+    <row r="18" spans="3:3" ht="42.95" customHeight="1">
       <c r="C18"/>
     </row>
-    <row r="19" spans="3:3" ht="43" customHeight="1">
+    <row r="19" spans="3:3" ht="42.95" customHeight="1">
       <c r="C19"/>
     </row>
-    <row r="20" spans="3:3" ht="43" customHeight="1">
+    <row r="20" spans="3:3" ht="42.95" customHeight="1">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" ht="43" customHeight="1">
+    <row r="21" spans="3:3" ht="42.95" customHeight="1">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" ht="43" customHeight="1">
+    <row r="22" spans="3:3" ht="42.95" customHeight="1">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" ht="43" customHeight="1">
+    <row r="23" spans="3:3" ht="42.95" customHeight="1">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" ht="43" customHeight="1">
+    <row r="24" spans="3:3" ht="42.95" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="3:3" ht="43" customHeight="1">
+    <row r="25" spans="3:3" ht="42.95" customHeight="1">
       <c r="C25"/>
     </row>
-    <row r="26" spans="3:3" ht="43" customHeight="1">
+    <row r="26" spans="3:3" ht="42.95" customHeight="1">
       <c r="C26"/>
     </row>
-    <row r="27" spans="3:3" ht="43" customHeight="1">
+    <row r="27" spans="3:3" ht="42.95" customHeight="1">
       <c r="C27"/>
     </row>
-    <row r="28" spans="3:3" ht="43" customHeight="1">
+    <row r="28" spans="3:3" ht="42.95" customHeight="1">
       <c r="C28"/>
     </row>
-    <row r="29" spans="3:3" ht="43" customHeight="1">
+    <row r="29" spans="3:3" ht="42.95" customHeight="1">
       <c r="C29"/>
     </row>
-    <row r="30" spans="3:3" ht="43" customHeight="1">
+    <row r="30" spans="3:3" ht="42.95" customHeight="1">
       <c r="C30"/>
     </row>
-    <row r="31" spans="3:3" ht="43" customHeight="1">
+    <row r="31" spans="3:3" ht="42.95" customHeight="1">
       <c r="C31"/>
     </row>
-    <row r="32" spans="3:3" ht="43" customHeight="1">
+    <row r="32" spans="3:3" ht="42.95" customHeight="1">
       <c r="C32"/>
     </row>
-    <row r="33" spans="3:3" ht="43" customHeight="1">
+    <row r="33" spans="3:3" ht="42.95" customHeight="1">
       <c r="C33"/>
     </row>
-    <row r="34" spans="3:3" ht="43" customHeight="1">
+    <row r="34" spans="3:3" ht="42.95" customHeight="1">
       <c r="C34"/>
     </row>
-    <row r="35" spans="3:3" ht="43" customHeight="1">
+    <row r="35" spans="3:3" ht="42.95" customHeight="1">
       <c r="C35"/>
     </row>
-    <row r="36" spans="3:3" ht="43" customHeight="1">
+    <row r="36" spans="3:3" ht="42.95" customHeight="1">
       <c r="C36"/>
     </row>
-    <row r="37" spans="3:3" ht="43" customHeight="1">
+    <row r="37" spans="3:3" ht="42.95" customHeight="1">
       <c r="C37"/>
     </row>
-    <row r="38" spans="3:3" ht="43" customHeight="1">
+    <row r="38" spans="3:3" ht="42.95" customHeight="1">
       <c r="C38"/>
     </row>
-    <row r="39" spans="3:3" ht="43" customHeight="1">
+    <row r="39" spans="3:3" ht="42.95" customHeight="1">
       <c r="C39"/>
     </row>
-    <row r="40" spans="3:3" ht="43" customHeight="1">
+    <row r="40" spans="3:3" ht="42.95" customHeight="1">
       <c r="C40"/>
     </row>
-    <row r="41" spans="3:3" ht="43" customHeight="1">
+    <row r="41" spans="3:3" ht="42.95" customHeight="1">
       <c r="C41"/>
     </row>
-    <row r="42" spans="3:3" ht="43" customHeight="1">
+    <row r="42" spans="3:3" ht="42.95" customHeight="1">
       <c r="C42"/>
     </row>
-    <row r="43" spans="3:3" ht="43" customHeight="1">
+    <row r="43" spans="3:3" ht="42.95" customHeight="1">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:3" ht="43" customHeight="1">
+    <row r="44" spans="3:3" ht="42.95" customHeight="1">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:3" ht="43" customHeight="1">
+    <row r="45" spans="3:3" ht="42.95" customHeight="1">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:3" ht="43" customHeight="1">
+    <row r="46" spans="3:3" ht="42.95" customHeight="1">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:3" ht="43" customHeight="1">
+    <row r="47" spans="3:3" ht="42.95" customHeight="1">
       <c r="C47"/>
     </row>
   </sheetData>
@@ -1362,22 +1440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="57.625" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" ht="68" customHeight="1">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="148" customHeight="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1400,151 +1478,151 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">NOW()</f>
-        <v>41986.924009374998</v>
+        <v>41988.847022337963</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="107" customHeight="1">
+    <row r="3" spans="1:4" ht="107.1" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41986.924009374998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43" customHeight="1">
+        <v>41988.847022337963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.95" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:4" ht="43" customHeight="1">
+    <row r="5" spans="1:4" ht="42.95" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:4" ht="43" customHeight="1">
+    <row r="6" spans="1:4" ht="42.95" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:4" ht="43" customHeight="1">
+    <row r="7" spans="1:4" ht="42.95" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:4" ht="43" customHeight="1">
+    <row r="8" spans="1:4" ht="42.95" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:4" ht="43" customHeight="1">
+    <row r="9" spans="1:4" ht="42.95" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:4" ht="43" customHeight="1">
+    <row r="10" spans="1:4" ht="42.95" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:4" ht="43" customHeight="1">
+    <row r="11" spans="1:4" ht="42.95" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:4" ht="43" customHeight="1">
+    <row r="12" spans="1:4" ht="42.95" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:4" ht="43" customHeight="1">
+    <row r="13" spans="1:4" ht="42.95" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:4" ht="43" customHeight="1">
+    <row r="14" spans="1:4" ht="42.95" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:4" ht="43" customHeight="1">
+    <row r="15" spans="1:4" ht="42.95" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:4" ht="43" customHeight="1">
+    <row r="16" spans="1:4" ht="42.95" customHeight="1">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" ht="43" customHeight="1">
+    <row r="17" spans="3:3" ht="42.95" customHeight="1">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" ht="43" customHeight="1">
+    <row r="18" spans="3:3" ht="42.95" customHeight="1">
       <c r="C18"/>
     </row>
-    <row r="19" spans="3:3" ht="43" customHeight="1">
+    <row r="19" spans="3:3" ht="42.95" customHeight="1">
       <c r="C19"/>
     </row>
-    <row r="20" spans="3:3" ht="43" customHeight="1">
+    <row r="20" spans="3:3" ht="42.95" customHeight="1">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" ht="43" customHeight="1">
+    <row r="21" spans="3:3" ht="42.95" customHeight="1">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" ht="43" customHeight="1">
+    <row r="22" spans="3:3" ht="42.95" customHeight="1">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" ht="43" customHeight="1">
+    <row r="23" spans="3:3" ht="42.95" customHeight="1">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" ht="43" customHeight="1">
+    <row r="24" spans="3:3" ht="42.95" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="3:3" ht="43" customHeight="1">
+    <row r="25" spans="3:3" ht="42.95" customHeight="1">
       <c r="C25"/>
     </row>
-    <row r="26" spans="3:3" ht="43" customHeight="1">
+    <row r="26" spans="3:3" ht="42.95" customHeight="1">
       <c r="C26"/>
     </row>
-    <row r="27" spans="3:3" ht="43" customHeight="1">
+    <row r="27" spans="3:3" ht="42.95" customHeight="1">
       <c r="C27"/>
     </row>
-    <row r="28" spans="3:3" ht="43" customHeight="1">
+    <row r="28" spans="3:3" ht="42.95" customHeight="1">
       <c r="C28"/>
     </row>
-    <row r="29" spans="3:3" ht="43" customHeight="1">
+    <row r="29" spans="3:3" ht="42.95" customHeight="1">
       <c r="C29"/>
     </row>
-    <row r="30" spans="3:3" ht="43" customHeight="1">
+    <row r="30" spans="3:3" ht="42.95" customHeight="1">
       <c r="C30"/>
     </row>
-    <row r="31" spans="3:3" ht="43" customHeight="1">
+    <row r="31" spans="3:3" ht="42.95" customHeight="1">
       <c r="C31"/>
     </row>
-    <row r="32" spans="3:3" ht="43" customHeight="1">
+    <row r="32" spans="3:3" ht="42.95" customHeight="1">
       <c r="C32"/>
     </row>
-    <row r="33" spans="3:3" ht="43" customHeight="1">
+    <row r="33" spans="3:3" ht="42.95" customHeight="1">
       <c r="C33"/>
     </row>
-    <row r="34" spans="3:3" ht="43" customHeight="1">
+    <row r="34" spans="3:3" ht="42.95" customHeight="1">
       <c r="C34"/>
     </row>
-    <row r="35" spans="3:3" ht="43" customHeight="1">
+    <row r="35" spans="3:3" ht="42.95" customHeight="1">
       <c r="C35"/>
     </row>
-    <row r="36" spans="3:3" ht="43" customHeight="1">
+    <row r="36" spans="3:3" ht="42.95" customHeight="1">
       <c r="C36"/>
     </row>
-    <row r="37" spans="3:3" ht="43" customHeight="1">
+    <row r="37" spans="3:3" ht="42.95" customHeight="1">
       <c r="C37"/>
     </row>
-    <row r="38" spans="3:3" ht="43" customHeight="1">
+    <row r="38" spans="3:3" ht="42.95" customHeight="1">
       <c r="C38"/>
     </row>
-    <row r="39" spans="3:3" ht="43" customHeight="1">
+    <row r="39" spans="3:3" ht="42.95" customHeight="1">
       <c r="C39"/>
     </row>
-    <row r="40" spans="3:3" ht="43" customHeight="1">
+    <row r="40" spans="3:3" ht="42.95" customHeight="1">
       <c r="C40"/>
     </row>
-    <row r="41" spans="3:3" ht="43" customHeight="1">
+    <row r="41" spans="3:3" ht="42.95" customHeight="1">
       <c r="C41"/>
     </row>
-    <row r="42" spans="3:3" ht="43" customHeight="1">
+    <row r="42" spans="3:3" ht="42.95" customHeight="1">
       <c r="C42"/>
     </row>
-    <row r="43" spans="3:3" ht="43" customHeight="1">
+    <row r="43" spans="3:3" ht="42.95" customHeight="1">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:3" ht="43" customHeight="1">
+    <row r="44" spans="3:3" ht="42.95" customHeight="1">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:3" ht="43" customHeight="1">
+    <row r="45" spans="3:3" ht="42.95" customHeight="1">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:3" ht="43" customHeight="1">
+    <row r="46" spans="3:3" ht="42.95" customHeight="1">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:3" ht="43" customHeight="1">
+    <row r="47" spans="3:3" ht="42.95" customHeight="1">
       <c r="C47"/>
     </row>
   </sheetData>
@@ -1557,4 +1635,189 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="57.625" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16">
+        <f ca="1">NOW()</f>
+        <v>41988.847022337963</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="107.1" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.95" customHeight="1">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,11 +57,6 @@
   </si>
   <si>
     <t>Not completed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成了资料查询
-2.觉得与找一个较好的数值没才能区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,6 +170,15 @@
   <si>
     <t xml:space="preserve">1.研究BP源代码                       
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成了资料查询
+2.觉得与找一个较好的数值没才能区别    3.完成代码整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成代码整合，但是收敛速度并不快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +788,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -819,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -839,17 +843,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81.95" customHeight="1">
@@ -860,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="10" t="s">
@@ -876,19 +882,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -897,19 +903,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="12">
         <v>1.5</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -918,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1266,21 +1272,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16">
         <v>41976</v>
@@ -1288,11 +1294,11 @@
     </row>
     <row r="3" spans="1:3" ht="42.95" customHeight="1">
       <c r="B3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41988.847022337963</v>
+        <v>41992.891772569441</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.95" customHeight="1">
@@ -1457,40 +1463,40 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16">
         <f ca="1">NOW()</f>
-        <v>41988.847022337963</v>
+        <v>41992.891772569441</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="107.1" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41988.847022337963</v>
+        <v>41992.891772569441</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.95" customHeight="1">
@@ -1642,7 +1648,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1655,34 +1661,37 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="16">
-        <f ca="1">NOW()</f>
-        <v>41988.847022337963</v>
+        <v>41983</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="107.1" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18">
+        <v>41992</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="42.95" customHeight="1">
       <c r="C4"/>

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Dijsktra" sheetId="2" r:id="rId2"/>
     <sheet name="粒子群" sheetId="3" r:id="rId3"/>
     <sheet name="粒子群BP" sheetId="4" r:id="rId4"/>
+    <sheet name="遗传算法" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +180,23 @@
   </si>
   <si>
     <t>1.完成代码整合，但是收敛速度并不快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传算法（BP网络优化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.研究遗传算法                       
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +294,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -321,7 +355,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,6 +407,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -787,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -919,25 +962,27 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1246,7 +1291,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1298,7 +1343,7 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41992.891772569441</v>
+        <v>42006.4533212963</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.95" customHeight="1">
@@ -1484,7 +1529,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">NOW()</f>
-        <v>41992.891772569441</v>
+        <v>42006.4533212963</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>28</v>
@@ -1496,7 +1541,7 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>41992.891772569441</v>
+        <v>42006.4533212963</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.95" customHeight="1">
@@ -1647,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1829,4 +1874,56 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51">
+      <c r="A2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16">
+        <v>41641</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,24 +113,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成代码编写（在catsu 工程下）
-2.完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粒子群算法处理最短路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Progress And Questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress And Questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.提出问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粒子群算法（BP网络优化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,11 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成了资料查询
-2.觉得与找一个较好的数值没才能区别    3.完成代码整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成代码整合，但是收敛速度并不快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +175,10 @@
   <si>
     <t xml:space="preserve">1.研究遗传算法                       
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.选择，变异，交叉顺序关系；  2.三个操作之间的矛盾，会相互影响    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,9 +387,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -828,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -839,23 +821,21 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="71.099999999999994" customHeight="1">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="35.25">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="35.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -866,19 +846,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="78.95" customHeight="1">
+    <row r="3" spans="1:6" ht="78.95" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -888,20 +865,17 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81.95" customHeight="1">
+    <row r="4" spans="1:6" ht="81.95" customHeight="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -911,16 +885,13 @@
       <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="69.95" customHeight="1">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="69.95" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -930,50 +901,44 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="65.099999999999994" customHeight="1">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12">
         <v>1.5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -985,309 +950,275 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1320,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>13</v>
@@ -1343,7 +1274,7 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>42006.4533212963</v>
+        <v>42007.609575000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.95" customHeight="1">
@@ -1511,37 +1442,37 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="16">
         <f ca="1">NOW()</f>
-        <v>42006.4533212963</v>
+        <v>42007.609575000002</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="107.1" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">NOW()</f>
-        <v>42006.4533212963</v>
+        <v>42007.609575000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.95" customHeight="1">
@@ -1709,21 +1640,21 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16">
         <v>41983</v>
@@ -1732,7 +1663,7 @@
     </row>
     <row r="3" spans="1:4" ht="107.1" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18">
         <v>41992</v>
@@ -1880,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1897,30 +1828,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
-      <c r="A2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>41</v>
+      <c r="A2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="16">
         <v>41641</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="25.5">
-      <c r="B3" s="5"/>
-      <c r="C3" s="18"/>
+    <row r="3" spans="1:4" ht="135.75" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18">
+        <v>41642</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/study plan.xlsx
+++ b/Document/study plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="粒子群" sheetId="3" r:id="rId3"/>
     <sheet name="粒子群BP" sheetId="4" r:id="rId4"/>
     <sheet name="遗传算法" sheetId="5" r:id="rId5"/>
+    <sheet name="BP网络" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>STUDY PLAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,12 +182,33 @@
     <t xml:space="preserve">1.选择，变异，交叉顺序关系；  2.三个操作之间的矛盾，会相互影响    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.操作之间的关系是选择出一些好的个体组成一个较优库，然后在库上完成交叉与变异        2.完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP网络与GA,PSO的分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.研究BP网络算法                  2.确定初始化weight和bias的重要性（Ngyuen-Widrow和遗传算法）                      
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,32 +226,6 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="28"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -277,18 +273,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,98 +343,122 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -496,7 +541,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -809,24 +854,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1">
+    <row r="1" spans="1:6" ht="71" customHeight="1">
+      <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
@@ -835,386 +881,403 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="35.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="33">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="78.95" customHeight="1">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6" ht="79" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="81.95" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" ht="82" customHeight="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="69.95" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" ht="70" customHeight="1">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="65.099999999999994" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" ht="65" customHeight="1">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>1.5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="8">
+      <c r="D7" s="29">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" s="30" customFormat="1" ht="71" customHeight="1">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="48" customHeight="1">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1222,7 +1285,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1232,181 +1295,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="51" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>41976</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.95" customHeight="1">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" ht="43" customHeight="1">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <f ca="1">NOW()</f>
-        <v>42007.609575000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.95" customHeight="1">
+        <v>42019.47637222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" ht="42.95" customHeight="1">
+    <row r="5" spans="1:3" ht="43" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" ht="42.95" customHeight="1">
+    <row r="6" spans="1:3" ht="43" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3" ht="42.95" customHeight="1">
+    <row r="7" spans="1:3" ht="43" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" ht="42.95" customHeight="1">
+    <row r="8" spans="1:3" ht="43" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:3" ht="42.95" customHeight="1">
+    <row r="9" spans="1:3" ht="43" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:3" ht="42.95" customHeight="1">
+    <row r="10" spans="1:3" ht="43" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" ht="42.95" customHeight="1">
+    <row r="11" spans="1:3" ht="43" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3" ht="42.95" customHeight="1">
+    <row r="12" spans="1:3" ht="43" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3" ht="42.95" customHeight="1">
+    <row r="13" spans="1:3" ht="43" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" ht="42.95" customHeight="1">
+    <row r="14" spans="1:3" ht="43" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" ht="42.95" customHeight="1">
+    <row r="15" spans="1:3" ht="43" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" ht="42.95" customHeight="1">
+    <row r="16" spans="1:3" ht="43" customHeight="1">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" ht="42.95" customHeight="1">
+    <row r="17" spans="3:3" ht="43" customHeight="1">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" ht="42.95" customHeight="1">
+    <row r="18" spans="3:3" ht="43" customHeight="1">
       <c r="C18"/>
     </row>
-    <row r="19" spans="3:3" ht="42.95" customHeight="1">
+    <row r="19" spans="3:3" ht="43" customHeight="1">
       <c r="C19"/>
     </row>
-    <row r="20" spans="3:3" ht="42.95" customHeight="1">
+    <row r="20" spans="3:3" ht="43" customHeight="1">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" ht="42.95" customHeight="1">
+    <row r="21" spans="3:3" ht="43" customHeight="1">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" ht="42.95" customHeight="1">
+    <row r="22" spans="3:3" ht="43" customHeight="1">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" ht="42.95" customHeight="1">
+    <row r="23" spans="3:3" ht="43" customHeight="1">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" ht="42.95" customHeight="1">
+    <row r="24" spans="3:3" ht="43" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="3:3" ht="42.95" customHeight="1">
+    <row r="25" spans="3:3" ht="43" customHeight="1">
       <c r="C25"/>
     </row>
-    <row r="26" spans="3:3" ht="42.95" customHeight="1">
+    <row r="26" spans="3:3" ht="43" customHeight="1">
       <c r="C26"/>
     </row>
-    <row r="27" spans="3:3" ht="42.95" customHeight="1">
+    <row r="27" spans="3:3" ht="43" customHeight="1">
       <c r="C27"/>
     </row>
-    <row r="28" spans="3:3" ht="42.95" customHeight="1">
+    <row r="28" spans="3:3" ht="43" customHeight="1">
       <c r="C28"/>
     </row>
-    <row r="29" spans="3:3" ht="42.95" customHeight="1">
+    <row r="29" spans="3:3" ht="43" customHeight="1">
       <c r="C29"/>
     </row>
-    <row r="30" spans="3:3" ht="42.95" customHeight="1">
+    <row r="30" spans="3:3" ht="43" customHeight="1">
       <c r="C30"/>
     </row>
-    <row r="31" spans="3:3" ht="42.95" customHeight="1">
+    <row r="31" spans="3:3" ht="43" customHeight="1">
       <c r="C31"/>
     </row>
-    <row r="32" spans="3:3" ht="42.95" customHeight="1">
+    <row r="32" spans="3:3" ht="43" customHeight="1">
       <c r="C32"/>
     </row>
-    <row r="33" spans="3:3" ht="42.95" customHeight="1">
+    <row r="33" spans="3:3" ht="43" customHeight="1">
       <c r="C33"/>
     </row>
-    <row r="34" spans="3:3" ht="42.95" customHeight="1">
+    <row r="34" spans="3:3" ht="43" customHeight="1">
       <c r="C34"/>
     </row>
-    <row r="35" spans="3:3" ht="42.95" customHeight="1">
+    <row r="35" spans="3:3" ht="43" customHeight="1">
       <c r="C35"/>
     </row>
-    <row r="36" spans="3:3" ht="42.95" customHeight="1">
+    <row r="36" spans="3:3" ht="43" customHeight="1">
       <c r="C36"/>
     </row>
-    <row r="37" spans="3:3" ht="42.95" customHeight="1">
+    <row r="37" spans="3:3" ht="43" customHeight="1">
       <c r="C37"/>
     </row>
-    <row r="38" spans="3:3" ht="42.95" customHeight="1">
+    <row r="38" spans="3:3" ht="43" customHeight="1">
       <c r="C38"/>
     </row>
-    <row r="39" spans="3:3" ht="42.95" customHeight="1">
+    <row r="39" spans="3:3" ht="43" customHeight="1">
       <c r="C39"/>
     </row>
-    <row r="40" spans="3:3" ht="42.95" customHeight="1">
+    <row r="40" spans="3:3" ht="43" customHeight="1">
       <c r="C40"/>
     </row>
-    <row r="41" spans="3:3" ht="42.95" customHeight="1">
+    <row r="41" spans="3:3" ht="43" customHeight="1">
       <c r="C41"/>
     </row>
-    <row r="42" spans="3:3" ht="42.95" customHeight="1">
+    <row r="42" spans="3:3" ht="43" customHeight="1">
       <c r="C42"/>
     </row>
-    <row r="43" spans="3:3" ht="42.95" customHeight="1">
+    <row r="43" spans="3:3" ht="43" customHeight="1">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:3" ht="42.95" customHeight="1">
+    <row r="44" spans="3:3" ht="43" customHeight="1">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:3" ht="42.95" customHeight="1">
+    <row r="45" spans="3:3" ht="43" customHeight="1">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:3" ht="42.95" customHeight="1">
+    <row r="46" spans="3:3" ht="43" customHeight="1">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:3" ht="42.95" customHeight="1">
+    <row r="47" spans="3:3" ht="43" customHeight="1">
       <c r="C47"/>
     </row>
   </sheetData>
@@ -1422,189 +1485,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="57.625" customWidth="1"/>
-    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="148" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <f ca="1">NOW()</f>
-        <v>42007.609575000002</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>42019.47637222222</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="107.1" customHeight="1">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:4" ht="107" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <f ca="1">NOW()</f>
-        <v>42007.609575000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.95" customHeight="1">
+        <v>42019.47637222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:4" ht="42.95" customHeight="1">
+    <row r="5" spans="1:4" ht="43" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:4" ht="42.95" customHeight="1">
+    <row r="6" spans="1:4" ht="43" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:4" ht="42.95" customHeight="1">
+    <row r="7" spans="1:4" ht="43" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:4" ht="42.95" customHeight="1">
+    <row r="8" spans="1:4" ht="43" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:4" ht="42.95" customHeight="1">
+    <row r="9" spans="1:4" ht="43" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:4" ht="42.95" customHeight="1">
+    <row r="10" spans="1:4" ht="43" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:4" ht="42.95" customHeight="1">
+    <row r="11" spans="1:4" ht="43" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:4" ht="42.95" customHeight="1">
+    <row r="12" spans="1:4" ht="43" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:4" ht="42.95" customHeight="1">
+    <row r="13" spans="1:4" ht="43" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:4" ht="42.95" customHeight="1">
+    <row r="14" spans="1:4" ht="43" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:4" ht="42.95" customHeight="1">
+    <row r="15" spans="1:4" ht="43" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:4" ht="42.95" customHeight="1">
+    <row r="16" spans="1:4" ht="43" customHeight="1">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" ht="42.95" customHeight="1">
+    <row r="17" spans="3:3" ht="43" customHeight="1">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" ht="42.95" customHeight="1">
+    <row r="18" spans="3:3" ht="43" customHeight="1">
       <c r="C18"/>
     </row>
-    <row r="19" spans="3:3" ht="42.95" customHeight="1">
+    <row r="19" spans="3:3" ht="43" customHeight="1">
       <c r="C19"/>
     </row>
-    <row r="20" spans="3:3" ht="42.95" customHeight="1">
+    <row r="20" spans="3:3" ht="43" customHeight="1">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" ht="42.95" customHeight="1">
+    <row r="21" spans="3:3" ht="43" customHeight="1">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" ht="42.95" customHeight="1">
+    <row r="22" spans="3:3" ht="43" customHeight="1">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" ht="42.95" customHeight="1">
+    <row r="23" spans="3:3" ht="43" customHeight="1">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" ht="42.95" customHeight="1">
+    <row r="24" spans="3:3" ht="43" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="3:3" ht="42.95" customHeight="1">
+    <row r="25" spans="3:3" ht="43" customHeight="1">
       <c r="C25"/>
     </row>
-    <row r="26" spans="3:3" ht="42.95" customHeight="1">
+    <row r="26" spans="3:3" ht="43" customHeight="1">
       <c r="C26"/>
     </row>
-    <row r="27" spans="3:3" ht="42.95" customHeight="1">
+    <row r="27" spans="3:3" ht="43" customHeight="1">
       <c r="C27"/>
     </row>
-    <row r="28" spans="3:3" ht="42.95" customHeight="1">
+    <row r="28" spans="3:3" ht="43" customHeight="1">
       <c r="C28"/>
     </row>
-    <row r="29" spans="3:3" ht="42.95" customHeight="1">
+    <row r="29" spans="3:3" ht="43" customHeight="1">
       <c r="C29"/>
     </row>
-    <row r="30" spans="3:3" ht="42.95" customHeight="1">
+    <row r="30" spans="3:3" ht="43" customHeight="1">
       <c r="C30"/>
     </row>
-    <row r="31" spans="3:3" ht="42.95" customHeight="1">
+    <row r="31" spans="3:3" ht="43" customHeight="1">
       <c r="C31"/>
     </row>
-    <row r="32" spans="3:3" ht="42.95" customHeight="1">
+    <row r="32" spans="3:3" ht="43" customHeight="1">
       <c r="C32"/>
     </row>
-    <row r="33" spans="3:3" ht="42.95" customHeight="1">
+    <row r="33" spans="3:3" ht="43" customHeight="1">
       <c r="C33"/>
     </row>
-    <row r="34" spans="3:3" ht="42.95" customHeight="1">
+    <row r="34" spans="3:3" ht="43" customHeight="1">
       <c r="C34"/>
     </row>
-    <row r="35" spans="3:3" ht="42.95" customHeight="1">
+    <row r="35" spans="3:3" ht="43" customHeight="1">
       <c r="C35"/>
     </row>
-    <row r="36" spans="3:3" ht="42.95" customHeight="1">
+    <row r="36" spans="3:3" ht="43" customHeight="1">
       <c r="C36"/>
     </row>
-    <row r="37" spans="3:3" ht="42.95" customHeight="1">
+    <row r="37" spans="3:3" ht="43" customHeight="1">
       <c r="C37"/>
     </row>
-    <row r="38" spans="3:3" ht="42.95" customHeight="1">
+    <row r="38" spans="3:3" ht="43" customHeight="1">
       <c r="C38"/>
     </row>
-    <row r="39" spans="3:3" ht="42.95" customHeight="1">
+    <row r="39" spans="3:3" ht="43" customHeight="1">
       <c r="C39"/>
     </row>
-    <row r="40" spans="3:3" ht="42.95" customHeight="1">
+    <row r="40" spans="3:3" ht="43" customHeight="1">
       <c r="C40"/>
     </row>
-    <row r="41" spans="3:3" ht="42.95" customHeight="1">
+    <row r="41" spans="3:3" ht="43" customHeight="1">
       <c r="C41"/>
     </row>
-    <row r="42" spans="3:3" ht="42.95" customHeight="1">
+    <row r="42" spans="3:3" ht="43" customHeight="1">
       <c r="C42"/>
     </row>
-    <row r="43" spans="3:3" ht="42.95" customHeight="1">
+    <row r="43" spans="3:3" ht="43" customHeight="1">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:3" ht="42.95" customHeight="1">
+    <row r="44" spans="3:3" ht="43" customHeight="1">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:3" ht="42.95" customHeight="1">
+    <row r="45" spans="3:3" ht="43" customHeight="1">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:3" ht="42.95" customHeight="1">
+    <row r="46" spans="3:3" ht="43" customHeight="1">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:3" ht="42.95" customHeight="1">
+    <row r="47" spans="3:3" ht="43" customHeight="1">
       <c r="C47"/>
     </row>
   </sheetData>
@@ -1620,92 +1683,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="57.625" customWidth="1"/>
-    <col min="3" max="3" width="41.375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="147.94999999999999" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="148" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>41983</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="107.1" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="107" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>41992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.95" customHeight="1">
+    <row r="4" spans="1:4" ht="43" customHeight="1">
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:4" ht="42.95" customHeight="1">
+    <row r="5" spans="1:4" ht="43" customHeight="1">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:4" ht="42.95" customHeight="1">
+    <row r="6" spans="1:4" ht="43" customHeight="1">
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:4" ht="42.95" customHeight="1">
+    <row r="7" spans="1:4" ht="43" customHeight="1">
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:4" ht="42.95" customHeight="1">
+    <row r="8" spans="1:4" ht="43" customHeight="1">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:4" ht="42.95" customHeight="1">
+    <row r="9" spans="1:4" ht="43" customHeight="1">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:4" ht="42.95" customHeight="1">
+    <row r="10" spans="1:4" ht="43" customHeight="1">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:4" ht="42.95" customHeight="1">
+    <row r="11" spans="1:4" ht="43" customHeight="1">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:4" ht="42.95" customHeight="1">
+    <row r="12" spans="1:4" ht="43" customHeight="1">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:4" ht="42.95" customHeight="1">
+    <row r="13" spans="1:4" ht="43" customHeight="1">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:4" ht="42.95" customHeight="1">
+    <row r="14" spans="1:4" ht="43" customHeight="1">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:4" ht="42.95" customHeight="1">
+    <row r="15" spans="1:4" ht="43" customHeight="1">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:4" ht="42.95" customHeight="1">
+    <row r="16" spans="1:4" ht="43" customHeight="1">
       <c r="C16"/>
     </row>
     <row r="17" spans="3:3">
@@ -1804,61 +1867,143 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="31">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="46">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>41641</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="135.75" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>41642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1" ht="63" customHeight="1">
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21">
+        <v>41654</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="92">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13">
+        <v>41654</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="23">
+      <c r="B3" s="3"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>